--- a/sirketiscileri/employees_info.xlsx
+++ b/sirketiscileri/employees_info.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Country</t>
   </si>
@@ -375,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection sqref="A1:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -387,7 +384,7 @@
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -397,62 +394,16 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
+      <c r="C2">
         <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
